--- a/logs/rooseBERT_scr.xlsx
+++ b/logs/rooseBERT_scr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/DebateBERT/logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4612694-8015-1245-B2B1-25B437D7D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117CD025-24D0-C34D-9C61-87C3A9900282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,12 @@
     <sheet name="ner" sheetId="2" r:id="rId3"/>
     <sheet name="sentiment analysis" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$C$1:$C$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$C$1:$C$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'relation classification'!$C$1:$C$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sentiment analysis'!$C$1:$C$325</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1445,10 +1451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1587,7 @@
         <v>0.55755230537154854</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
@@ -1618,7 +1625,7 @@
         <v>0.57402568332335779</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>125</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>0.55917685419800323</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
@@ -1846,7 +1853,7 @@
         <v>0.57172276803536481</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>0.57217656189933963</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>174</v>
       </c>
@@ -2074,7 +2081,7 @@
         <v>0.56196174783437847</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>144</v>
       </c>
@@ -2150,7 +2157,7 @@
         <v>0.55541142147609002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>123</v>
       </c>
@@ -2264,7 +2271,7 @@
         <v>0.5582182623567814</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
@@ -2302,7 +2309,7 @@
         <v>0.56963645299582</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>145</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>0.55974189121693552</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>166</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>0.56655241915852816</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>0.56910604711366741</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -2568,7 +2575,7 @@
         <v>0.56300285688327156</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>27</v>
       </c>
@@ -2834,7 +2841,7 @@
         <v>0.55727899534620784</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>84</v>
       </c>
@@ -2872,7 +2879,7 @@
         <v>0.57139798445764778</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>122</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>0.55864709829424197</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>38</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>0.57105735682690761</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -3062,7 +3069,7 @@
         <v>0.57105735682690761</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>173</v>
       </c>
@@ -3290,7 +3297,7 @@
         <v>0.56059015334295725</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
@@ -3442,7 +3449,7 @@
         <v>0.55880838692092594</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -3480,7 +3487,7 @@
         <v>0.5742300464455069</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>102</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>0.57127633173238346</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>118</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>0.56154804728294594</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>113</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>0.56264953209703306</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>105</v>
       </c>
@@ -3746,7 +3753,7 @@
         <v>0.5717568475477357</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>29</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>0.57210843637319164</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>156</v>
       </c>
@@ -3822,7 +3829,7 @@
         <v>0.57210843637319164</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>17</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>0.57735410188659042</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>157</v>
       </c>
@@ -3898,7 +3905,7 @@
         <v>0.57735410188659042</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>81</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>0.57342715191505722</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>111</v>
       </c>
@@ -3974,7 +3981,7 @@
         <v>0.57342715191505722</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>61</v>
       </c>
@@ -4012,7 +4019,7 @@
         <v>0.57406947830445298</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>117</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>0.57406947830445298</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>139</v>
       </c>
@@ -4126,7 +4133,7 @@
         <v>0.55487638679978601</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>12</v>
       </c>
@@ -4164,7 +4171,7 @@
         <v>0.56753916001226257</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>63</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>0.56115042550399252</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>0.57665338218906781</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>101</v>
       </c>
@@ -4544,7 +4551,7 @@
         <v>0.55540812568424558</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>54</v>
       </c>
@@ -4582,7 +4589,7 @@
         <v>0.57250259120304814</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>143</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>0.55679553607014742</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>152</v>
       </c>
@@ -4886,7 +4893,7 @@
         <v>0.5699993184097526</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>31</v>
       </c>
@@ -4924,7 +4931,7 @@
         <v>0.56661946540926411</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>90</v>
       </c>
@@ -4962,7 +4969,7 @@
         <v>0.56661946540926411</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>119</v>
       </c>
@@ -5000,7 +5007,7 @@
         <v>0.57070525116600612</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>50</v>
       </c>
@@ -5038,7 +5045,7 @@
         <v>0.5716984255265285</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -5076,7 +5083,7 @@
         <v>0.5719381225578215</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>147</v>
       </c>
@@ -5152,7 +5159,7 @@
         <v>0.5580260248942549</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>158</v>
       </c>
@@ -5190,7 +5197,7 @@
         <v>0.56660597267796808</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>72</v>
       </c>
@@ -5304,7 +5311,7 @@
         <v>0.55674003965471142</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>51</v>
       </c>
@@ -5494,7 +5501,7 @@
         <v>0.55878331676849413</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>91</v>
       </c>
@@ -5532,7 +5539,7 @@
         <v>0.5729204194701123</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>69</v>
       </c>
@@ -5570,7 +5577,7 @@
         <v>0.57321304311859189</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>75</v>
       </c>
@@ -5760,7 +5767,7 @@
         <v>0.55788469497975957</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>42</v>
       </c>
@@ -5798,7 +5805,7 @@
         <v>0.57286686595067238</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>37</v>
       </c>
@@ -5836,7 +5843,7 @@
         <v>0.57031090252285765</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>25</v>
       </c>
@@ -5874,7 +5881,7 @@
         <v>0.56849008286190006</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>78</v>
       </c>
@@ -5912,7 +5919,7 @@
         <v>0.56810849476649972</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>172</v>
       </c>
@@ -5950,7 +5957,7 @@
         <v>0.56810849476649972</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>65</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>0.573840771180956</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>126</v>
       </c>
@@ -6102,7 +6109,7 @@
         <v>0.55377854912189539</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>20</v>
       </c>
@@ -6140,7 +6147,7 @@
         <v>0.57157803049103906</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>87</v>
       </c>
@@ -6254,7 +6261,7 @@
         <v>0.5537205099990915</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>129</v>
       </c>
@@ -6292,7 +6299,7 @@
         <v>0.57199651586594846</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>142</v>
       </c>
@@ -6406,7 +6413,7 @@
         <v>0.56054977336738709</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>98</v>
       </c>
@@ -6444,7 +6451,7 @@
         <v>0.57097301876320583</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>41</v>
       </c>
@@ -6558,7 +6565,7 @@
         <v>0.55767338845977266</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>168</v>
       </c>
@@ -6862,7 +6869,7 @@
         <v>0.55969648505885139</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>167</v>
       </c>
@@ -6900,7 +6907,7 @@
         <v>0.57388925132179824</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>16</v>
       </c>
@@ -6938,7 +6945,7 @@
         <v>0.57048802207267046</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>108</v>
       </c>
@@ -6976,7 +6983,7 @@
         <v>0.57048802207267046</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>109</v>
       </c>
@@ -7014,7 +7021,7 @@
         <v>0.57305732763025352</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>151</v>
       </c>
@@ -7052,7 +7059,7 @@
         <v>0.57305732763025352</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>83</v>
       </c>
@@ -7356,7 +7363,7 @@
         <v>0.5482188173209358</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>134</v>
       </c>
@@ -7394,7 +7401,7 @@
         <v>0.56875785045909977</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>92</v>
       </c>
@@ -7432,7 +7439,7 @@
         <v>0.57258044894721727</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>121</v>
       </c>
@@ -7470,7 +7477,7 @@
         <v>0.57258044894721727</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>96</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>0.56886760777214929</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>146</v>
       </c>
@@ -7546,7 +7553,7 @@
         <v>0.56886760777214929</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>154</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>0.56926176260200578</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>62</v>
       </c>
@@ -7622,7 +7629,7 @@
         <v>0.56867296341172635</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>70</v>
       </c>
@@ -7660,7 +7667,7 @@
         <v>0.56906711824158285</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>175</v>
       </c>
@@ -7698,7 +7705,7 @@
         <v>0.56906711824158285</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>49</v>
       </c>
@@ -8154,7 +8161,7 @@
         <v>0.54890015041540896</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>56</v>
       </c>
@@ -8192,7 +8199,7 @@
         <v>0.56667299260838044</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>115</v>
       </c>
@@ -8420,7 +8427,7 @@
         <v>0.55007116970694236</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>130</v>
       </c>
@@ -8458,7 +8465,7 @@
         <v>0.56495068207709764</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>26</v>
       </c>
@@ -8496,7 +8503,7 @@
         <v>0.56532508041245144</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>97</v>
       </c>
@@ -8534,7 +8541,7 @@
         <v>0.56532508041245144</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>140</v>
       </c>
@@ -8572,7 +8579,7 @@
         <v>0.57016685887797258</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>141</v>
       </c>
@@ -8686,7 +8693,7 @@
         <v>0.55029325957257791</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>128</v>
       </c>
@@ -8724,7 +8731,7 @@
         <v>0.56861179540608175</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>159</v>
       </c>
@@ -8762,7 +8769,7 @@
         <v>0.56694676780167674</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>95</v>
       </c>
@@ -8800,7 +8807,7 @@
         <v>0.56418154479496652</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>148</v>
       </c>
@@ -8914,7 +8921,7 @@
         <v>0.55156373763312838</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>23</v>
       </c>
@@ -8952,7 +8959,7 @@
         <v>0.56369980000291964</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>33</v>
       </c>
@@ -9142,7 +9149,7 @@
         <v>0.55093933918169979</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>80</v>
       </c>
@@ -9180,7 +9187,7 @@
         <v>0.56330999698152895</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>76</v>
       </c>
@@ -9218,7 +9225,7 @@
         <v>0.56272577676945701</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>104</v>
       </c>
@@ -9256,7 +9263,7 @@
         <v>0.5651304360520284</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>116</v>
       </c>
@@ -9370,7 +9377,7 @@
         <v>0.55710328891938388</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>94</v>
       </c>
@@ -9408,7 +9415,7 @@
         <v>0.5612521471706009</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>136</v>
       </c>
@@ -9446,7 +9453,7 @@
         <v>0.5612521471706009</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>59</v>
       </c>
@@ -9522,7 +9529,7 @@
         <v>0.54906671781463567</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>165</v>
       </c>
@@ -9560,7 +9567,7 @@
         <v>0.56682384198770819</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>170</v>
       </c>
@@ -9750,7 +9757,7 @@
         <v>0.55447763454103105</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>106</v>
       </c>
@@ -9788,7 +9795,7 @@
         <v>0.56070048003427431</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>45</v>
       </c>
@@ -9826,7 +9833,7 @@
         <v>0.56848805126932456</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>153</v>
       </c>
@@ -9978,7 +9985,7 @@
         <v>0.54900585739439289</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>77</v>
       </c>
@@ -10092,7 +10099,7 @@
         <v>0.55496919948943302</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>79</v>
       </c>
@@ -10168,7 +10175,7 @@
         <v>0.55565370132951064</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>86</v>
       </c>
@@ -10244,7 +10251,7 @@
         <v>0.54676001171019295</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>150</v>
       </c>
@@ -10434,7 +10441,7 @@
         <v>0.54775971061141915</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>110</v>
       </c>
@@ -10472,7 +10479,7 @@
         <v>0.56491173406295947</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>36</v>
       </c>
@@ -10662,7 +10669,7 @@
         <v>0.54701303156737013</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>149</v>
       </c>
@@ -10700,7 +10707,7 @@
         <v>0.56780679600784412</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>164</v>
       </c>
@@ -10776,7 +10783,7 @@
         <v>0.55822792477210548</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>93</v>
       </c>
@@ -10814,7 +10821,7 @@
         <v>0.56336841900273604</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>66</v>
       </c>
@@ -10852,7 +10859,7 @@
         <v>0.56271197987377308</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>127</v>
       </c>
@@ -10890,7 +10897,7 @@
         <v>0.56271197987377308</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>22</v>
       </c>
@@ -11118,7 +11125,7 @@
         <v>0.54959670499399349</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>35</v>
       </c>
@@ -11156,7 +11163,7 @@
         <v>0.55951981236283654</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>131</v>
       </c>
@@ -11194,7 +11201,7 @@
         <v>0.55951981236283654</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>32</v>
       </c>
@@ -11232,7 +11239,7 @@
         <v>0.56430319752023084</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>161</v>
       </c>
@@ -11270,7 +11277,7 @@
         <v>0.56430319752023084</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>18</v>
       </c>
@@ -11308,7 +11315,7 @@
         <v>0.56296015143331246</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>169</v>
       </c>
@@ -11422,7 +11429,7 @@
         <v>0.54679609103430182</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>114</v>
       </c>
@@ -11498,7 +11505,7 @@
         <v>0.54768875114830551</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>88</v>
       </c>
@@ -11536,7 +11543,7 @@
         <v>0.5596025362160163</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>124</v>
       </c>
@@ -11574,7 +11581,7 @@
         <v>0.5596025362160163</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>133</v>
       </c>
@@ -11612,7 +11619,7 @@
         <v>0.56011834377113712</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>137</v>
       </c>
@@ -11650,7 +11657,7 @@
         <v>0.56091956261380127</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>64</v>
       </c>
@@ -11688,7 +11695,7 @@
         <v>0.56015240653421117</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>24</v>
       </c>
@@ -11726,7 +11733,7 @@
         <v>0.55856118888775341</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>160</v>
       </c>
@@ -11802,7 +11809,7 @@
         <v>0.5479714109772964</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>34</v>
       </c>
@@ -11840,7 +11847,7 @@
         <v>0.55978744835841809</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>162</v>
       </c>
@@ -11878,7 +11885,7 @@
         <v>0.55978744835841809</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>48</v>
       </c>
@@ -11916,7 +11923,7 @@
         <v>0.55988963664764013</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>171</v>
       </c>
@@ -11954,7 +11961,7 @@
         <v>0.55988963664764013</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>39</v>
       </c>
@@ -11992,7 +11999,7 @@
         <v>0.55972905505029125</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>58</v>
       </c>
@@ -12030,7 +12037,7 @@
         <v>0.55972905505029125</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>132</v>
       </c>
@@ -12144,7 +12151,7 @@
         <v>0.54465695647567491</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>73</v>
       </c>
@@ -12182,7 +12189,7 @@
         <v>0.55974138518612282</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>43</v>
       </c>
@@ -12220,7 +12227,7 @@
         <v>0.55872177048510241</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>138</v>
       </c>
@@ -12258,7 +12265,7 @@
         <v>0.55872177048510241</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>103</v>
       </c>
@@ -12676,7 +12683,7 @@
         <v>0.54810264589789925</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>85</v>
       </c>
@@ -12714,7 +12721,7 @@
         <v>0.55609487736244045</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>44</v>
       </c>
@@ -12752,7 +12759,7 @@
         <v>0.56185067857890147</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>82</v>
       </c>
@@ -12866,7 +12873,7 @@
         <v>0.55409134709980778</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>30</v>
       </c>
@@ -12980,7 +12987,7 @@
         <v>0.55227510077644526</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>71</v>
       </c>
@@ -13018,7 +13025,7 @@
         <v>0.55961480414017395</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>60</v>
       </c>
@@ -13056,7 +13063,7 @@
         <v>0.55013308808143924</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>99</v>
       </c>
@@ -13094,7 +13101,7 @@
         <v>0.55013308808143924</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>21</v>
       </c>
@@ -13132,7 +13139,7 @@
         <v>0.56096991284798758</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>46</v>
       </c>
@@ -13170,7 +13177,7 @@
         <v>0.56096991284798758</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>55</v>
       </c>
@@ -13208,7 +13215,7 @@
         <v>0.55927400901646529</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>89</v>
       </c>
@@ -13246,7 +13253,7 @@
         <v>0.55348097108071415</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>120</v>
       </c>
@@ -13436,7 +13443,7 @@
         <v>0.54230592651265574</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>47</v>
       </c>
@@ -13474,7 +13481,7 @@
         <v>0.55023527637066127</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>163</v>
       </c>
@@ -13512,7 +13519,7 @@
         <v>0.55023527637066127</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>15</v>
       </c>
@@ -13550,7 +13557,7 @@
         <v>0.55144207140528367</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>19</v>
       </c>
@@ -13626,7 +13633,7 @@
         <v>0.54036988057622226</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>155</v>
       </c>
@@ -13778,7 +13785,7 @@
         <v>0.54256322807513202</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>53</v>
       </c>
@@ -13817,6 +13824,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="uncased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L325">
     <sortCondition descending="1" ref="I1:I325"/>
   </sortState>
@@ -13826,10 +13840,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13885,7 +13900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -13923,7 +13938,7 @@
         <v>0.76440611524892199</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -13961,7 +13976,7 @@
         <v>0.75833006664053315</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -13999,7 +14014,7 @@
         <v>0.75833006664053315</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -14037,7 +14052,7 @@
         <v>0.76087808702469617</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
@@ -14151,7 +14166,7 @@
         <v>0.75480203841630733</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -14189,7 +14204,7 @@
         <v>0.76303410427283413</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -14493,7 +14508,7 @@
         <v>0.76205409643277144</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -14531,7 +14546,7 @@
         <v>0.75088200705605646</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -14569,7 +14584,7 @@
         <v>0.75088200705605646</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -14607,7 +14622,7 @@
         <v>0.76009408075264606</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -14721,7 +14736,7 @@
         <v>0.75950607604860843</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
@@ -14797,7 +14812,7 @@
         <v>0.75872206977655821</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -14835,7 +14850,7 @@
         <v>0.75735005880047035</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -14987,7 +15002,7 @@
         <v>0.75617404939239519</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -15025,7 +15040,7 @@
         <v>0.75715405723245788</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
@@ -15101,7 +15116,7 @@
         <v>0.75558604468835755</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -15139,7 +15154,7 @@
         <v>0.75460603684829475</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
@@ -15177,7 +15192,7 @@
         <v>0.74696197569580558</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -15329,7 +15344,7 @@
         <v>0.75578204625637002</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -15367,7 +15382,7 @@
         <v>0.74931399451195613</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -15405,7 +15420,7 @@
         <v>0.74931399451195613</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -15443,7 +15458,7 @@
         <v>0.75499803998431991</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>151</v>
       </c>
@@ -15481,7 +15496,7 @@
         <v>0.75499803998431991</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -15519,7 +15534,7 @@
         <v>0.74931399451195613</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>161</v>
       </c>
@@ -15709,7 +15724,7 @@
         <v>0.75362602900823206</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>165</v>
       </c>
@@ -15747,7 +15762,7 @@
         <v>0.74813798510388085</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>170</v>
       </c>
@@ -16013,7 +16028,7 @@
         <v>0.75774206193649551</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -16051,7 +16066,7 @@
         <v>0.74480595844766762</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>164</v>
       </c>
@@ -16241,7 +16256,7 @@
         <v>0.75813406507252057</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
@@ -16659,7 +16674,7 @@
         <v>0.75186201489611915</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>37</v>
       </c>
@@ -16811,7 +16826,7 @@
         <v>0.75088200705605646</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -16849,7 +16864,7 @@
         <v>0.753234025872207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -17077,7 +17092,7 @@
         <v>0.76048608388867112</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -17115,7 +17130,7 @@
         <v>0.76362210897687177</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>122</v>
       </c>
@@ -17191,7 +17206,7 @@
         <v>0.75029400235201882</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>67</v>
       </c>
@@ -17305,7 +17320,7 @@
         <v>0.74656997255978053</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>71</v>
       </c>
@@ -17381,7 +17396,7 @@
         <v>0.75676205409643282</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>159</v>
       </c>
@@ -17647,7 +17662,7 @@
         <v>0.74892199137593096</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -17913,7 +17928,7 @@
         <v>0.74480595844766762</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>92</v>
       </c>
@@ -17951,7 +17966,7 @@
         <v>0.7430419443355547</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -18103,7 +18118,7 @@
         <v>0.75343002744021947</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
@@ -18141,7 +18156,7 @@
         <v>0.75147001176009409</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
@@ -18179,7 +18194,7 @@
         <v>0.74382595060760481</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>49</v>
       </c>
@@ -18217,7 +18232,7 @@
         <v>0.75068600548804387</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>39</v>
       </c>
@@ -18255,7 +18270,7 @@
         <v>0.75186201489611915</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>58</v>
       </c>
@@ -18293,7 +18308,7 @@
         <v>0.75186201489611915</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
@@ -18331,7 +18346,7 @@
         <v>0.74656997255978053</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>87</v>
       </c>
@@ -18445,7 +18460,7 @@
         <v>0.75343002744021947</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
@@ -18483,7 +18498,7 @@
         <v>0.74774598196785569</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -18521,7 +18536,7 @@
         <v>0.74715797726381816</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>157</v>
       </c>
@@ -18559,7 +18574,7 @@
         <v>0.74715797726381816</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>83</v>
       </c>
@@ -18597,7 +18612,7 @@
         <v>0.74872598980791849</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>95</v>
       </c>
@@ -18635,7 +18650,7 @@
         <v>0.74147393179145438</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>148</v>
       </c>
@@ -18749,7 +18764,7 @@
         <v>0.74225793806350449</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>44</v>
       </c>
@@ -18787,7 +18802,7 @@
         <v>0.7393179145433163</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>82</v>
       </c>
@@ -18939,7 +18954,7 @@
         <v>0.75147001176009409</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>60</v>
       </c>
@@ -18977,7 +18992,7 @@
         <v>0.73814190513524103</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>99</v>
       </c>
@@ -19015,7 +19030,7 @@
         <v>0.73814190513524103</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>134</v>
       </c>
@@ -19129,7 +19144,7 @@
         <v>0.75362602900823206</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>79</v>
       </c>
@@ -19319,7 +19334,7 @@
         <v>0.7440219521756174</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -19357,7 +19372,7 @@
         <v>0.73872990983927866</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>46</v>
       </c>
@@ -19471,7 +19486,7 @@
         <v>0.75303802430419442</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
@@ -19509,7 +19524,7 @@
         <v>0.74539396315170525</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>169</v>
       </c>
@@ -19547,7 +19562,7 @@
         <v>0.74539396315170525</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>112</v>
       </c>
@@ -19737,7 +19752,7 @@
         <v>0.75147001176009409</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>88</v>
       </c>
@@ -19775,7 +19790,7 @@
         <v>0.75107800862406904</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>124</v>
       </c>
@@ -19813,7 +19828,7 @@
         <v>0.75107800862406904</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>98</v>
       </c>
@@ -19851,7 +19866,7 @@
         <v>0.75205801646413173</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>72</v>
       </c>
@@ -20003,7 +20018,7 @@
         <v>0.74441395531164245</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>81</v>
       </c>
@@ -20041,7 +20056,7 @@
         <v>0.7504900039200314</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>111</v>
       </c>
@@ -20193,7 +20208,7 @@
         <v>0.74598196785574289</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>139</v>
       </c>
@@ -20345,7 +20360,7 @@
         <v>0.73853390827126619</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>89</v>
       </c>
@@ -20383,7 +20398,7 @@
         <v>0.73402587220697768</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>120</v>
       </c>
@@ -20497,7 +20512,7 @@
         <v>0.75107800862406904</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>35</v>
       </c>
@@ -20535,7 +20550,7 @@
         <v>0.73500588004704037</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>131</v>
       </c>
@@ -20687,7 +20702,7 @@
         <v>0.74362994903959234</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>80</v>
       </c>
@@ -20725,7 +20740,7 @@
         <v>0.74421795374362998</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>91</v>
       </c>
@@ -20763,7 +20778,7 @@
         <v>0.73951391611132888</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>48</v>
       </c>
@@ -20801,7 +20816,7 @@
         <v>0.7375539004312035</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>171</v>
       </c>
@@ -20839,7 +20854,7 @@
         <v>0.7375539004312035</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>137</v>
       </c>
@@ -20877,7 +20892,7 @@
         <v>0.73500588004704037</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>73</v>
       </c>
@@ -20915,7 +20930,7 @@
         <v>0.73088984711877691</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>30</v>
       </c>
@@ -21067,7 +21082,7 @@
         <v>0.75284202273618184</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>55</v>
       </c>
@@ -21181,7 +21196,7 @@
         <v>0.74421795374362998</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>85</v>
       </c>
@@ -21219,7 +21234,7 @@
         <v>0.73637789102312823</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>34</v>
       </c>
@@ -21257,7 +21272,7 @@
         <v>0.73069384555076444</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -21333,7 +21348,7 @@
         <v>0.74578596628773031</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>22</v>
       </c>
@@ -21409,7 +21424,7 @@
         <v>0.73735789886319092</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>43</v>
       </c>
@@ -21447,7 +21462,7 @@
         <v>0.72461779694237549</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>138</v>
       </c>
@@ -21485,7 +21500,7 @@
         <v>0.72461779694237549</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>59</v>
       </c>
@@ -21599,7 +21614,7 @@
         <v>0.73814190513524103</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>128</v>
       </c>
@@ -21979,7 +21994,7 @@
         <v>0.72442179537436302</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>36</v>
       </c>
@@ -22017,7 +22032,7 @@
         <v>0.72971383771070164</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>69</v>
       </c>
@@ -22055,7 +22070,7 @@
         <v>0.73539788318306543</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>75</v>
       </c>
@@ -22169,7 +22184,7 @@
         <v>0.7236377891023128</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>104</v>
       </c>
@@ -22207,7 +22222,7 @@
         <v>0.74225793806350449</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>116</v>
       </c>
@@ -22321,7 +22336,7 @@
         <v>0.72206977655821247</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>103</v>
       </c>
@@ -22397,7 +22412,7 @@
         <v>0.72050176401411214</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>40</v>
       </c>
@@ -22435,7 +22450,7 @@
         <v>0.74519796158369267</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>174</v>
       </c>
@@ -22549,7 +22564,7 @@
         <v>0.72108976871814978</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>47</v>
       </c>
@@ -22587,7 +22602,7 @@
         <v>0.72206977655821247</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>163</v>
       </c>
@@ -22663,7 +22678,7 @@
         <v>0.72657781262250098</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>105</v>
       </c>
@@ -22701,7 +22716,7 @@
         <v>0.73598588788710306</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>155</v>
       </c>
@@ -22739,7 +22754,7 @@
         <v>0.71971775774206193</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>15</v>
       </c>
@@ -22777,7 +22792,7 @@
         <v>0.72148177185417484</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>19</v>
       </c>
@@ -22891,7 +22906,7 @@
         <v>0.71991375931007451</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>24</v>
       </c>
@@ -22929,7 +22944,7 @@
         <v>0.72246177969423753</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>160</v>
       </c>
@@ -22967,7 +22982,7 @@
         <v>0.72246177969423753</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>53</v>
       </c>
@@ -23081,7 +23096,7 @@
         <v>0.71638573108584869</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>54</v>
       </c>
@@ -23119,7 +23134,7 @@
         <v>0.74206193649549201</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>143</v>
       </c>
@@ -23309,7 +23324,7 @@
         <v>0.49294394355154841</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>123</v>
       </c>
@@ -23385,7 +23400,7 @@
         <v>0.47020776166209333</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>51</v>
       </c>
@@ -23423,7 +23438,7 @@
         <v>0.50960407683261466</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>61</v>
       </c>
@@ -23461,7 +23476,7 @@
         <v>0.50039200313602505</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>117</v>
       </c>
@@ -23499,7 +23514,7 @@
         <v>0.50039200313602505</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>28</v>
       </c>
@@ -23537,7 +23552,7 @@
         <v>0.49745197961583693</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>147</v>
       </c>
@@ -23575,7 +23590,7 @@
         <v>0.49745197961583693</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -23613,7 +23628,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>23</v>
       </c>
@@ -23651,7 +23666,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>25</v>
       </c>
@@ -23689,7 +23704,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>26</v>
       </c>
@@ -23727,7 +23742,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>27</v>
       </c>
@@ -23765,7 +23780,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>31</v>
       </c>
@@ -23803,7 +23818,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>33</v>
       </c>
@@ -23841,7 +23856,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>38</v>
       </c>
@@ -23879,7 +23894,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>42</v>
       </c>
@@ -23917,7 +23932,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>50</v>
       </c>
@@ -23955,7 +23970,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>52</v>
       </c>
@@ -23993,7 +24008,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -24031,7 +24046,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>57</v>
       </c>
@@ -24069,7 +24084,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>62</v>
       </c>
@@ -24107,7 +24122,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>63</v>
       </c>
@@ -24145,7 +24160,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>64</v>
       </c>
@@ -24183,7 +24198,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>66</v>
       </c>
@@ -24221,7 +24236,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>68</v>
       </c>
@@ -24259,7 +24274,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>76</v>
       </c>
@@ -24297,7 +24312,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>77</v>
       </c>
@@ -24335,7 +24350,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>78</v>
       </c>
@@ -24373,7 +24388,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>90</v>
       </c>
@@ -24411,7 +24426,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>94</v>
       </c>
@@ -24449,7 +24464,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>96</v>
       </c>
@@ -24487,7 +24502,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>97</v>
       </c>
@@ -24525,7 +24540,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>100</v>
       </c>
@@ -24563,7 +24578,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>102</v>
       </c>
@@ -24601,7 +24616,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>107</v>
       </c>
@@ -24639,7 +24654,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>114</v>
       </c>
@@ -24677,7 +24692,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>115</v>
       </c>
@@ -24715,7 +24730,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>118</v>
       </c>
@@ -24753,7 +24768,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>125</v>
       </c>
@@ -24791,7 +24806,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>127</v>
       </c>
@@ -24829,7 +24844,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>130</v>
       </c>
@@ -24867,7 +24882,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>133</v>
       </c>
@@ -24905,7 +24920,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>135</v>
       </c>
@@ -24943,7 +24958,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>136</v>
       </c>
@@ -24981,7 +24996,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>144</v>
       </c>
@@ -25019,7 +25034,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>145</v>
       </c>
@@ -25057,7 +25072,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>146</v>
       </c>
@@ -25095,7 +25110,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>152</v>
       </c>
@@ -25133,7 +25148,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>154</v>
       </c>
@@ -25171,7 +25186,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>158</v>
       </c>
@@ -25209,7 +25224,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>166</v>
       </c>
@@ -25247,7 +25262,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>172</v>
       </c>
@@ -26198,6 +26213,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="uncased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L325">
     <sortCondition descending="1" ref="I1:I325"/>
   </sortState>
@@ -26207,10 +26229,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26266,7 +26289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>166</v>
       </c>
@@ -26304,7 +26327,7 @@
         <v>0.84346059628368286</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>144</v>
       </c>
@@ -26342,7 +26365,7 @@
         <v>0.84343072235167593</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
@@ -26380,7 +26403,7 @@
         <v>0.84296459912841026</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>107</v>
       </c>
@@ -26418,7 +26441,7 @@
         <v>0.84296459912841026</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>100</v>
       </c>
@@ -26456,7 +26479,7 @@
         <v>0.8429347501641693</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>145</v>
       </c>
@@ -26722,7 +26745,7 @@
         <v>0.84320676680038564</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -26760,7 +26783,7 @@
         <v>0.83494652566170757</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>158</v>
       </c>
@@ -26798,7 +26821,7 @@
         <v>0.83494652566170757</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -26836,7 +26859,7 @@
         <v>0.83442779535550116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
@@ -26874,7 +26897,7 @@
         <v>0.83442779535550116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -26912,7 +26935,7 @@
         <v>0.83442779535550116</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
@@ -26950,7 +26973,7 @@
         <v>0.83442779535550116</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>67</v>
       </c>
@@ -26988,7 +27011,7 @@
         <v>0.82921073071637685</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>57</v>
       </c>
@@ -27026,7 +27049,7 @@
         <v>0.8287266431854815</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>125</v>
       </c>
@@ -27064,7 +27087,7 @@
         <v>0.8287266431854815</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>123</v>
       </c>
@@ -27102,7 +27125,7 @@
         <v>0.82918085678436992</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -27140,7 +27163,7 @@
         <v>0.82869679422124054</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>174</v>
       </c>
@@ -27178,7 +27201,7 @@
         <v>0.82869679422124054</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -27216,7 +27239,7 @@
         <v>0.83016669654059871</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>135</v>
       </c>
@@ -27254,7 +27277,7 @@
         <v>0.83016669654059871</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -27292,7 +27315,7 @@
         <v>0.82968181004119157</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>118</v>
       </c>
@@ -27330,7 +27353,7 @@
         <v>0.82968181004119157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
@@ -27368,7 +27391,7 @@
         <v>0.82968181004119157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
@@ -27634,7 +27657,7 @@
         <v>0.83058121093385573</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>29</v>
       </c>
@@ -27672,7 +27695,7 @@
         <v>0.8133544266013969</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>84</v>
       </c>
@@ -27710,7 +27733,7 @@
         <v>0.81332457763715604</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>122</v>
       </c>
@@ -27748,7 +27771,7 @@
         <v>0.81332457763715604</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>156</v>
       </c>
@@ -27786,7 +27809,7 @@
         <v>0.8133544266013969</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
@@ -27824,7 +27847,7 @@
         <v>0.81382565573280752</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>173</v>
       </c>
@@ -27862,7 +27885,7 @@
         <v>0.81379578180080059</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -27900,7 +27923,7 @@
         <v>0.81812750194180561</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>72</v>
       </c>
@@ -27938,7 +27961,7 @@
         <v>0.81809762800979868</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>54</v>
       </c>
@@ -27976,7 +27999,7 @@
         <v>0.81765267745209236</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>143</v>
       </c>
@@ -28014,7 +28037,7 @@
         <v>0.81765267745209236</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>28</v>
       </c>
@@ -28052,7 +28075,7 @@
         <v>0.81762282848785151</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>147</v>
       </c>
@@ -28090,7 +28113,7 @@
         <v>0.81762282848785151</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>119</v>
       </c>
@@ -28128,7 +28151,7 @@
         <v>0.79488558284041344</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>139</v>
       </c>
@@ -28204,7 +28227,7 @@
         <v>0.82515480598686874</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>74</v>
       </c>
@@ -28242,7 +28265,7 @@
         <v>0.79443018327264048</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>101</v>
       </c>
@@ -28280,7 +28303,7 @@
         <v>0.79443018327264048</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>17</v>
       </c>
@@ -28318,7 +28341,7 @@
         <v>0.79443018327264048</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>157</v>
       </c>
@@ -28546,7 +28569,7 @@
         <v>0.82526355070435675</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>42</v>
       </c>
@@ -28584,7 +28607,7 @@
         <v>0.80820935651550452</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>152</v>
       </c>
@@ -28622,7 +28645,7 @@
         <v>0.80820935651550452</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>69</v>
       </c>
@@ -28660,7 +28683,7 @@
         <v>0.80774282132410002</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>75</v>
       </c>
@@ -28698,7 +28721,7 @@
         <v>0.80774282132410002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
@@ -28736,7 +28759,7 @@
         <v>0.80774282132410002</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>172</v>
       </c>
@@ -28774,7 +28797,7 @@
         <v>0.80774282132410002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>105</v>
       </c>
@@ -28812,7 +28835,7 @@
         <v>0.77331660393140944</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>112</v>
       </c>
@@ -28850,7 +28873,7 @@
         <v>0.77331660393140944</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>61</v>
       </c>
@@ -28888,7 +28911,7 @@
         <v>0.77287923109068113</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>117</v>
       </c>
@@ -28926,7 +28949,7 @@
         <v>0.77287923109068113</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>81</v>
       </c>
@@ -28964,7 +28987,7 @@
         <v>0.77287923109068113</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>111</v>
       </c>
@@ -29002,7 +29025,7 @@
         <v>0.77287923109068113</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>130</v>
       </c>
@@ -29040,7 +29063,7 @@
         <v>0.8198303160662006</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>76</v>
       </c>
@@ -29078,7 +29101,7 @@
         <v>0.81971082033817289</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>56</v>
       </c>
@@ -29116,7 +29139,7 @@
         <v>0.81935406841382608</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>115</v>
       </c>
@@ -29154,7 +29177,7 @@
         <v>0.81935406841382608</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>26</v>
       </c>
@@ -29192,7 +29215,7 @@
         <v>0.81923467255686233</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>97</v>
       </c>
@@ -29230,7 +29253,7 @@
         <v>0.81923467255686233</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>167</v>
       </c>
@@ -29268,7 +29291,7 @@
         <v>0.77678198004421339</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>168</v>
       </c>
@@ -29306,7 +29329,7 @@
         <v>0.77678198004421339</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>16</v>
       </c>
@@ -29344,7 +29367,7 @@
         <v>0.77634171094263027</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>108</v>
       </c>
@@ -29382,7 +29405,7 @@
         <v>0.77634171094263027</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>65</v>
       </c>
@@ -29420,7 +29443,7 @@
         <v>0.77634171094263027</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>126</v>
       </c>
@@ -29914,7 +29937,7 @@
         <v>0.80927947258761701</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>59</v>
       </c>
@@ -29952,7 +29975,7 @@
         <v>0.76038119137240845</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>80</v>
       </c>
@@ -29990,7 +30013,7 @@
         <v>0.76038119137240845</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>104</v>
       </c>
@@ -30028,7 +30051,7 @@
         <v>0.75995462957435378</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>116</v>
       </c>
@@ -30066,7 +30089,7 @@
         <v>0.75995462957435378</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>23</v>
       </c>
@@ -30104,7 +30127,7 @@
         <v>0.75995462957435378</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>33</v>
       </c>
@@ -31054,7 +31077,7 @@
         <v>0.80166060266815931</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>134</v>
       </c>
@@ -31092,7 +31115,7 @@
         <v>0.75043317201410054</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>49</v>
       </c>
@@ -31130,7 +31153,7 @@
         <v>0.75043317201410054</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>70</v>
       </c>
@@ -31168,7 +31191,7 @@
         <v>0.75001492448212048</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>175</v>
       </c>
@@ -31206,7 +31229,7 @@
         <v>0.75001492448212048</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>92</v>
       </c>
@@ -31244,7 +31267,7 @@
         <v>0.75001492448212048</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>121</v>
       </c>
@@ -31738,7 +31761,7 @@
         <v>0.76950586186522374</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>98</v>
       </c>
@@ -31776,7 +31799,7 @@
         <v>0.74490649459281832</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>41</v>
       </c>
@@ -31814,7 +31837,7 @@
         <v>0.74493636852482525</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>140</v>
       </c>
@@ -31852,7 +31875,7 @@
         <v>0.74452271506178735</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>141</v>
       </c>
@@ -31890,7 +31913,7 @@
         <v>0.74452271506178735</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>109</v>
       </c>
@@ -31928,7 +31951,7 @@
         <v>0.74455256402602832</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>151</v>
       </c>
@@ -31966,7 +31989,7 @@
         <v>0.74455256402602832</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>114</v>
       </c>
@@ -32004,7 +32027,7 @@
         <v>0.74197884925613911</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>77</v>
       </c>
@@ -32042,7 +32065,7 @@
         <v>0.74197884925613911</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>94</v>
       </c>
@@ -32080,7 +32103,7 @@
         <v>0.74156766760193427</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>136</v>
       </c>
@@ -32118,7 +32141,7 @@
         <v>0.74156766760193427</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>66</v>
       </c>
@@ -32156,7 +32179,7 @@
         <v>0.74156766760193427</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>127</v>
       </c>
@@ -32308,7 +32331,7 @@
         <v>0.74195354044220541</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>25</v>
       </c>
@@ -32346,7 +32369,7 @@
         <v>0.73403238334229548</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>83</v>
       </c>
@@ -32384,7 +32407,7 @@
         <v>0.73403238334229548</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>62</v>
       </c>
@@ -32422,7 +32445,7 @@
         <v>0.73362784311384399</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>96</v>
       </c>
@@ -32460,7 +32483,7 @@
         <v>0.73362784311384399</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>146</v>
       </c>
@@ -32498,7 +32521,7 @@
         <v>0.73362784311384399</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>154</v>
       </c>
@@ -33790,7 +33813,7 @@
         <v>0.6823086730727369</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>79</v>
       </c>
@@ -33828,7 +33851,7 @@
         <v>0.69286610503674495</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>106</v>
       </c>
@@ -33866,7 +33889,7 @@
         <v>0.69286610503674495</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>39</v>
       </c>
@@ -33904,7 +33927,7 @@
         <v>0.69249597038982746</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>58</v>
       </c>
@@ -33942,7 +33965,7 @@
         <v>0.69249597038982746</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>88</v>
       </c>
@@ -33980,7 +34003,7 @@
         <v>0.69249597038982746</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>124</v>
       </c>
@@ -34018,7 +34041,7 @@
         <v>0.69249597038982746</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>37</v>
       </c>
@@ -34056,7 +34079,7 @@
         <v>0.69654059867359741</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>129</v>
       </c>
@@ -34094,7 +34117,7 @@
         <v>0.69616739299146324</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>142</v>
       </c>
@@ -34132,7 +34155,7 @@
         <v>0.69616739299146324</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>91</v>
       </c>
@@ -34170,7 +34193,7 @@
         <v>0.69654059867359741</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>20</v>
       </c>
@@ -34208,7 +34231,7 @@
         <v>0.69616739299146324</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>87</v>
       </c>
@@ -34702,7 +34725,7 @@
         <v>0.65715085362440528</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>86</v>
       </c>
@@ -34740,7 +34763,7 @@
         <v>0.65370138017565871</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>150</v>
       </c>
@@ -34778,7 +34801,7 @@
         <v>0.65370138017565871</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>18</v>
       </c>
@@ -34816,7 +34839,7 @@
         <v>0.65336397826995407</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>32</v>
       </c>
@@ -34854,7 +34877,7 @@
         <v>0.65336397826995407</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>161</v>
       </c>
@@ -34892,7 +34915,7 @@
         <v>0.65336397826995407</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>169</v>
       </c>
@@ -34930,7 +34953,7 @@
         <v>0.65336397826995407</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>132</v>
       </c>
@@ -34968,7 +34991,7 @@
         <v>0.61785266176734177</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>137</v>
       </c>
@@ -35006,7 +35029,7 @@
         <v>0.61785266176734177</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>35</v>
       </c>
@@ -35044,7 +35067,7 @@
         <v>0.617545221180825</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>48</v>
       </c>
@@ -35082,7 +35105,7 @@
         <v>0.617545221180825</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>131</v>
       </c>
@@ -35120,7 +35143,7 @@
         <v>0.617545221180825</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>171</v>
       </c>
@@ -35386,7 +35409,7 @@
         <v>0.63059364990515288</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>22</v>
       </c>
@@ -35424,7 +35447,7 @@
         <v>0.59335603752165855</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>36</v>
       </c>
@@ -35462,7 +35485,7 @@
         <v>0.59335603752165855</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>24</v>
       </c>
@@ -35500,7 +35523,7 @@
         <v>0.59306907050325353</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>64</v>
       </c>
@@ -35538,7 +35561,7 @@
         <v>0.59306907050325353</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>133</v>
       </c>
@@ -35576,7 +35599,7 @@
         <v>0.59306907050325353</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>160</v>
       </c>
@@ -35614,7 +35637,7 @@
         <v>0.59306907050325353</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>128</v>
       </c>
@@ -35652,7 +35675,7 @@
         <v>0.59251956742546452</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>159</v>
       </c>
@@ -35690,7 +35713,7 @@
         <v>0.59251956742546452</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>95</v>
       </c>
@@ -35728,7 +35751,7 @@
         <v>0.5922332995045072</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>148</v>
       </c>
@@ -35766,7 +35789,7 @@
         <v>0.5922332995045072</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>149</v>
       </c>
@@ -35804,7 +35827,7 @@
         <v>0.5922332995045072</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>164</v>
       </c>
@@ -36526,7 +36549,7 @@
         <v>0.6048138818919675</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>93</v>
       </c>
@@ -36564,7 +36587,7 @@
         <v>0.58520045408376653</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>110</v>
       </c>
@@ -36602,7 +36625,7 @@
         <v>0.58520045408376653</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>45</v>
       </c>
@@ -36640,7 +36663,7 @@
         <v>0.58492030326547673</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>153</v>
       </c>
@@ -36678,7 +36701,7 @@
         <v>0.58492030326547673</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>165</v>
       </c>
@@ -36716,7 +36739,7 @@
         <v>0.58492030326547673</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>170</v>
       </c>
@@ -36982,7 +37005,7 @@
         <v>0.59203283888422431</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>71</v>
       </c>
@@ -37020,7 +37043,7 @@
         <v>0.57115970604050903</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>85</v>
       </c>
@@ -37058,7 +37081,7 @@
         <v>0.57115970604050903</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>60</v>
       </c>
@@ -37096,7 +37119,7 @@
         <v>0.57089129007223449</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>89</v>
       </c>
@@ -37134,7 +37157,7 @@
         <v>0.57089129007223449</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>99</v>
       </c>
@@ -37172,7 +37195,7 @@
         <v>0.57089129007223449</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>120</v>
       </c>
@@ -37666,7 +37689,7 @@
         <v>0.58379202039991296</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>30</v>
       </c>
@@ -37704,7 +37727,7 @@
         <v>0.55693971440521006</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>55</v>
       </c>
@@ -37742,7 +37765,7 @@
         <v>0.55693971440521006</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>21</v>
       </c>
@@ -37780,7 +37803,7 @@
         <v>0.5566831830935467</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>44</v>
       </c>
@@ -37818,7 +37841,7 @@
         <v>0.5566831830935467</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>46</v>
       </c>
@@ -37856,7 +37879,7 @@
         <v>0.5566831830935467</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>82</v>
       </c>
@@ -37894,7 +37917,7 @@
         <v>0.5566831830935467</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>15</v>
       </c>
@@ -37932,7 +37955,7 @@
         <v>0.55053429645991281</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>19</v>
       </c>
@@ -37970,7 +37993,7 @@
         <v>0.55053429645991281</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>34</v>
       </c>
@@ -38008,7 +38031,7 @@
         <v>0.55399677631186195</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>43</v>
       </c>
@@ -38046,7 +38069,7 @@
         <v>0.55399677631186195</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>47</v>
       </c>
@@ -38084,7 +38107,7 @@
         <v>0.55053429645991281</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>53</v>
       </c>
@@ -38122,7 +38145,7 @@
         <v>0.55078568441178233</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>73</v>
       </c>
@@ -38160,7 +38183,7 @@
         <v>0.55425106052458628</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>103</v>
       </c>
@@ -38198,7 +38221,7 @@
         <v>0.55425106052458628</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>138</v>
       </c>
@@ -38236,7 +38259,7 @@
         <v>0.55399677631186195</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>155</v>
       </c>
@@ -38274,7 +38297,7 @@
         <v>0.55078568441178233</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>162</v>
       </c>
@@ -38312,7 +38335,7 @@
         <v>0.55399677631186195</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>163</v>
       </c>
@@ -38579,6 +38602,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="uncased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L325">
     <sortCondition descending="1" ref="I1:I325"/>
   </sortState>
@@ -38588,10 +38618,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38647,7 +38678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>124</v>
       </c>
@@ -38723,7 +38754,7 @@
         <v>0.70741183502689775</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -38875,7 +38906,7 @@
         <v>0.70053795576808131</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>89</v>
       </c>
@@ -38951,7 +38982,7 @@
         <v>0.70263000597728631</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>163</v>
       </c>
@@ -39065,7 +39096,7 @@
         <v>0.7017334130304842</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
@@ -39179,7 +39210,7 @@
         <v>0.70053795576808131</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -39217,7 +39248,7 @@
         <v>0.70143454871488342</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>170</v>
       </c>
@@ -39293,7 +39324,7 @@
         <v>0.70143454871488342</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -39331,7 +39362,7 @@
         <v>0.69784817692767487</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -39407,7 +39438,7 @@
         <v>0.70203227734608487</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -39559,7 +39590,7 @@
         <v>0.69874476987447698</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>148</v>
       </c>
@@ -39635,7 +39666,7 @@
         <v>0.70083682008368198</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
@@ -39711,7 +39742,7 @@
         <v>0.69754931261207409</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>131</v>
       </c>
@@ -39749,7 +39780,7 @@
         <v>0.69276748356246265</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -39787,7 +39818,7 @@
         <v>0.69485953377166765</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>45</v>
       </c>
@@ -39825,7 +39856,7 @@
         <v>0.69695158398087265</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>171</v>
       </c>
@@ -39901,7 +39932,7 @@
         <v>0.70143454871488342</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
@@ -39977,7 +40008,7 @@
         <v>0.69874476987447698</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>142</v>
       </c>
@@ -40053,7 +40084,7 @@
         <v>0.69844590555887631</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>24</v>
       </c>
@@ -40205,7 +40236,7 @@
         <v>0.69665271966527198</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>104</v>
       </c>
@@ -40243,7 +40274,7 @@
         <v>0.68888224745965332</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>21</v>
       </c>
@@ -40319,7 +40350,7 @@
         <v>0.69814704124327553</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>19</v>
       </c>
@@ -40357,7 +40388,7 @@
         <v>0.69007770472205621</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>84</v>
       </c>
@@ -40433,7 +40464,7 @@
         <v>0.69515839808726843</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>146</v>
       </c>
@@ -40471,7 +40502,7 @@
         <v>0.69246861924686187</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>161</v>
       </c>
@@ -40661,7 +40692,7 @@
         <v>0.69276748356246265</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
@@ -40699,7 +40730,7 @@
         <v>0.69157202630005976</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>65</v>
       </c>
@@ -40737,7 +40768,7 @@
         <v>0.69784817692767487</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>121</v>
       </c>
@@ -40889,7 +40920,7 @@
         <v>0.69216975493126121</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>175</v>
       </c>
@@ -40965,7 +40996,7 @@
         <v>0.68858338314405265</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
@@ -41079,7 +41110,7 @@
         <v>0.69037656903765687</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>164</v>
       </c>
@@ -41117,7 +41148,7 @@
         <v>0.68947997609085476</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>18</v>
       </c>
@@ -41155,7 +41186,7 @@
         <v>0.6858936043036461</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
@@ -41193,7 +41224,7 @@
         <v>0.68947997609085476</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>140</v>
       </c>
@@ -41269,7 +41300,7 @@
         <v>0.69187089061566054</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>48</v>
       </c>
@@ -41421,7 +41452,7 @@
         <v>0.68947997609085476</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>169</v>
       </c>
@@ -41459,7 +41490,7 @@
         <v>0.67931858936043032</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>58</v>
       </c>
@@ -41497,7 +41528,7 @@
         <v>0.68051404662283321</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>74</v>
       </c>
@@ -41611,7 +41642,7 @@
         <v>0.68738792588164976</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>88</v>
       </c>
@@ -41649,7 +41680,7 @@
         <v>0.67423789599521822</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>156</v>
       </c>
@@ -41801,7 +41832,7 @@
         <v>0.68529587567244477</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>109</v>
       </c>
@@ -41839,7 +41870,7 @@
         <v>0.69037656903765687</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>35</v>
       </c>
@@ -41877,7 +41908,7 @@
         <v>0.67842199641362821</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>165</v>
       </c>
@@ -41953,7 +41984,7 @@
         <v>0.68858338314405265</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>60</v>
       </c>
@@ -41991,7 +42022,7 @@
         <v>0.67274357441721455</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>133</v>
       </c>
@@ -42105,7 +42136,7 @@
         <v>0.68738792588164976</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>57</v>
       </c>
@@ -42143,7 +42174,7 @@
         <v>0.68200836820083677</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>82</v>
       </c>
@@ -42181,7 +42212,7 @@
         <v>0.67872086072922888</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>149</v>
       </c>
@@ -42257,7 +42288,7 @@
         <v>0.68499701135684399</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>153</v>
       </c>
@@ -42295,7 +42326,7 @@
         <v>0.67573221757322177</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>17</v>
       </c>
@@ -42333,7 +42364,7 @@
         <v>0.68529587567244477</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
@@ -42523,7 +42554,7 @@
         <v>0.67632994620442322</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>94</v>
       </c>
@@ -42561,7 +42592,7 @@
         <v>0.6775254034668261</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>54</v>
       </c>
@@ -43055,7 +43086,7 @@
         <v>0.67872086072922888</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>33</v>
       </c>
@@ -43093,7 +43124,7 @@
         <v>0.66557083084279733</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>141</v>
       </c>
@@ -43207,7 +43238,7 @@
         <v>0.671249252839211</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -43245,7 +43276,7 @@
         <v>0.67095038852361033</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>32</v>
       </c>
@@ -43321,7 +43352,7 @@
         <v>0.67154811715481166</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>138</v>
       </c>
@@ -43359,7 +43390,7 @@
         <v>0.67065152420800955</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>129</v>
       </c>
@@ -43435,7 +43466,7 @@
         <v>0.68021518230723255</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>162</v>
       </c>
@@ -43511,7 +43542,7 @@
         <v>0.67692767483562466</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>47</v>
       </c>
@@ -43549,7 +43580,7 @@
         <v>0.66855947399880455</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>116</v>
       </c>
@@ -43587,7 +43618,7 @@
         <v>0.66945606694560666</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>120</v>
       </c>
@@ -43701,7 +43732,7 @@
         <v>0.66945606694560666</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>87</v>
       </c>
@@ -43739,7 +43770,7 @@
         <v>0.67244471010161389</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>61</v>
       </c>
@@ -43777,7 +43808,7 @@
         <v>0.67393903167961744</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>95</v>
       </c>
@@ -43815,7 +43846,7 @@
         <v>0.67543335325762099</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>127</v>
       </c>
@@ -43853,7 +43884,7 @@
         <v>0.67244471010161389</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>15</v>
       </c>
@@ -43891,7 +43922,7 @@
         <v>0.66736401673640167</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -44005,7 +44036,7 @@
         <v>0.669157202630006</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -44043,7 +44074,7 @@
         <v>0.66616855947399878</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>70</v>
       </c>
@@ -44157,7 +44188,7 @@
         <v>0.67274357441721455</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>126</v>
       </c>
@@ -44233,7 +44264,7 @@
         <v>0.66945606694560666</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>157</v>
       </c>
@@ -44423,7 +44454,7 @@
         <v>0.66766288105200244</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>96</v>
       </c>
@@ -44461,7 +44492,7 @@
         <v>0.67872086072922888</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>92</v>
       </c>
@@ -44499,7 +44530,7 @@
         <v>0.67483562462641955</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>147</v>
       </c>
@@ -44575,7 +44606,7 @@
         <v>0.66317991631799167</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>101</v>
       </c>
@@ -44613,7 +44644,7 @@
         <v>0.66855947399880455</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>154</v>
       </c>
@@ -44651,7 +44682,7 @@
         <v>0.67453676031081888</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>160</v>
       </c>
@@ -44727,7 +44758,7 @@
         <v>0.66676628810520022</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>155</v>
       </c>
@@ -44765,7 +44796,7 @@
         <v>0.65630603705917512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>12</v>
       </c>
@@ -44803,7 +44834,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>26</v>
       </c>
@@ -44841,7 +44872,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>27</v>
       </c>
@@ -44879,7 +44910,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>31</v>
       </c>
@@ -44917,7 +44948,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>38</v>
       </c>
@@ -44955,7 +44986,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>50</v>
       </c>
@@ -44993,7 +45024,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>56</v>
       </c>
@@ -45031,7 +45062,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>63</v>
       </c>
@@ -45069,7 +45100,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>66</v>
       </c>
@@ -45107,7 +45138,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>67</v>
       </c>
@@ -45145,7 +45176,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>68</v>
       </c>
@@ -45183,7 +45214,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>76</v>
       </c>
@@ -45221,7 +45252,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>80</v>
       </c>
@@ -45259,7 +45290,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>90</v>
       </c>
@@ -45297,7 +45328,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>97</v>
       </c>
@@ -45335,7 +45366,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>100</v>
       </c>
@@ -45373,7 +45404,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>102</v>
       </c>
@@ -45411,7 +45442,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>107</v>
       </c>
@@ -45449,7 +45480,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>115</v>
       </c>
@@ -45487,7 +45518,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>130</v>
       </c>
@@ -45525,7 +45556,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>135</v>
       </c>
@@ -45563,7 +45594,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>144</v>
       </c>
@@ -45601,7 +45632,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>158</v>
       </c>
@@ -45639,7 +45670,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>166</v>
       </c>
@@ -45677,7 +45708,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>172</v>
       </c>
@@ -46513,7 +46544,7 @@
         <v>0.66975493126120744</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>150</v>
       </c>
@@ -46703,7 +46734,7 @@
         <v>0.65809922295277945</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>111</v>
       </c>
@@ -46817,7 +46848,7 @@
         <v>0.66347878063359234</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>145</v>
       </c>
@@ -46893,7 +46924,7 @@
         <v>0.6566049013747759</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>53</v>
       </c>
@@ -46969,7 +47000,7 @@
         <v>0.66646742378959956</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>108</v>
       </c>
@@ -47007,7 +47038,7 @@
         <v>0.66317991631799167</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>59</v>
       </c>
@@ -47083,7 +47114,7 @@
         <v>0.66826060968320378</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>93</v>
       </c>
@@ -47121,7 +47152,7 @@
         <v>0.65301852958756723</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>86</v>
       </c>
@@ -47159,7 +47190,7 @@
         <v>0.65690376569037656</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>91</v>
       </c>
@@ -47197,7 +47228,7 @@
         <v>0.65301852958756723</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>36</v>
       </c>
@@ -47235,7 +47266,7 @@
         <v>0.64644351464435146</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>30</v>
       </c>
@@ -47273,7 +47304,7 @@
         <v>0.65152420800956368</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>137</v>
       </c>
@@ -47349,7 +47380,7 @@
         <v>0.65212193664076512</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>71</v>
       </c>
@@ -47387,7 +47418,7 @@
         <v>0.65092647937836223</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>103</v>
       </c>
@@ -47425,7 +47456,7 @@
         <v>0.65182307232516434</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>55</v>
       </c>
@@ -47501,7 +47532,7 @@
         <v>0.661685594739988</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>22</v>
       </c>
@@ -47577,7 +47608,7 @@
         <v>0.65869695158398089</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>78</v>
       </c>
@@ -47653,7 +47684,7 @@
         <v>0.65570830842797367</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>143</v>
       </c>
@@ -47767,7 +47798,7 @@
         <v>0.66527196652719667</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>114</v>
       </c>
@@ -47805,7 +47836,7 @@
         <v>0.64973102211595934</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>29</v>
       </c>
@@ -47843,7 +47874,7 @@
         <v>0.65301852958756723</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>167</v>
       </c>
@@ -47919,7 +47950,7 @@
         <v>0.53108188882247465</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>110</v>
       </c>
@@ -48033,7 +48064,7 @@
         <v>0.66317991631799167</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>159</v>
       </c>
@@ -48071,7 +48102,7 @@
         <v>0.64763897190675435</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>85</v>
       </c>
@@ -48109,7 +48140,7 @@
         <v>0.6449491930663479</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>132</v>
       </c>
@@ -48185,7 +48216,7 @@
         <v>0.65750149432157801</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>134</v>
       </c>
@@ -48223,7 +48254,7 @@
         <v>0.65570830842797367</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>168</v>
       </c>
@@ -48451,7 +48482,7 @@
         <v>0.64853556485355646</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>139</v>
       </c>
@@ -48489,7 +48520,7 @@
         <v>0.65212193664076512</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>73</v>
       </c>
@@ -48565,7 +48596,7 @@
         <v>0.65271966527196656</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>49</v>
       </c>
@@ -48793,7 +48824,7 @@
         <v>0.65451285116557079</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>174</v>
       </c>
@@ -48831,7 +48862,7 @@
         <v>0.65600717274357445</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>106</v>
       </c>
@@ -48869,7 +48900,7 @@
         <v>0.63120143454871491</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>79</v>
       </c>
@@ -48983,7 +49014,7 @@
         <v>0.65451285116557079</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>25</v>
       </c>
@@ -49021,7 +49052,7 @@
         <v>0.65032875074716079</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>40</v>
       </c>
@@ -49097,7 +49128,7 @@
         <v>0.64196054991034068</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>83</v>
       </c>
@@ -49135,7 +49166,7 @@
         <v>0.64136282127913924</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>125</v>
       </c>
@@ -49401,7 +49432,7 @@
         <v>0.6566049013747759</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>37</v>
       </c>
@@ -49515,7 +49546,7 @@
         <v>0.64674237895995224</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>41</v>
       </c>
@@ -49553,7 +49584,7 @@
         <v>0.64405260011954568</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>128</v>
       </c>
@@ -49629,7 +49660,7 @@
         <v>0.65032875074716079</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>77</v>
       </c>
@@ -49705,7 +49736,7 @@
         <v>0.6449491930663479</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>119</v>
       </c>
@@ -49743,7 +49774,7 @@
         <v>0.64614465032875079</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>98</v>
       </c>
@@ -49781,7 +49812,7 @@
         <v>0.64315600717274357</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>117</v>
       </c>
@@ -49895,7 +49926,7 @@
         <v>0.63538553496712491</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>113</v>
       </c>
@@ -49933,7 +49964,7 @@
         <v>0.63777644949193069</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>105</v>
       </c>
@@ -50237,7 +50268,7 @@
         <v>0.64524805738194857</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>173</v>
       </c>
@@ -50351,7 +50382,7 @@
         <v>0.63837417812313213</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>112</v>
       </c>
@@ -50427,7 +50458,7 @@
         <v>0.63389121338912136</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>118</v>
       </c>
@@ -50465,7 +50496,7 @@
         <v>0.62851165570830847</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>75</v>
       </c>
@@ -50541,7 +50572,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>51</v>
       </c>
@@ -50579,7 +50610,7 @@
         <v>0.63419007770472202</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>72</v>
       </c>
@@ -50655,7 +50686,7 @@
         <v>0.63419007770472202</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>136</v>
       </c>
@@ -50693,7 +50724,7 @@
         <v>0.63568439928272569</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>28</v>
       </c>
@@ -50731,7 +50762,7 @@
         <v>0.63986849970113568</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>123</v>
       </c>
@@ -50807,7 +50838,7 @@
         <v>0.62044231918708903</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>42</v>
       </c>
@@ -50845,7 +50876,7 @@
         <v>0.62612074118350269</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>152</v>
       </c>
@@ -50960,6 +50991,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="uncased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L325">
     <sortCondition descending="1" ref="I1:I325"/>
   </sortState>
